--- a/Test cases.xlsx
+++ b/Test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandra/Documents/GitHub/MyFirst-lalala/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B219C5-3DCA-DE43-9DAF-150EF8FD9A70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D293161B-6AF0-6844-822A-E9D627C7F393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16120" xr2:uid="{17A3994F-3BA3-C443-ADF7-FBCCF0A9E0EB}"/>
+    <workbookView xWindow="6280" yWindow="1520" windowWidth="28240" windowHeight="16120" xr2:uid="{17A3994F-3BA3-C443-ADF7-FBCCF0A9E0EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="173">
   <si>
     <t>№</t>
   </si>
@@ -540,6 +540,15 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>лала</t>
+  </si>
+  <si>
+    <t>лалала</t>
+  </si>
+  <si>
+    <t>ляляля</t>
   </si>
 </sst>
 </file>
@@ -662,15 +671,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -686,14 +686,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9366B369-BA60-0349-93CA-4B49DBAD52DD}">
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1034,7 @@
     <col min="6" max="6" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,3142 +1052,3223 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="E8" s="10"/>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5" t="s">
+    <row r="14" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="10">
         <v>4</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="10">
         <v>5</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="10">
         <v>6</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="5" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="5" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="10">
         <v>7</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="5" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="5" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="5" t="s">
+      <c r="E43" s="10"/>
+      <c r="F43" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="5" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="5" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="5" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="5" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="5" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="5" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="5" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="10">
         <v>8</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="5" t="s">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="5" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="5" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="5" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="5" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="5"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="5" t="s">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="5"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="5" t="s">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="5"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5" t="s">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="5"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="10">
         <v>9</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="5" t="s">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="5" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="5" t="s">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="5" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="5" t="s">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="5"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="5" t="s">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="5"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="5" t="s">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="5" t="s">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="5"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="5" t="s">
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="5"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67" s="10">
         <v>10</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="5" t="s">
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="5" t="s">
+      <c r="E68" s="10"/>
+      <c r="F68" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="5" t="s">
+      <c r="A69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="5" t="s">
+      <c r="E69" s="10"/>
+      <c r="F69" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="5" t="s">
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="5" t="s">
+      <c r="E70" s="10"/>
+      <c r="F70" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="5" t="s">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="5"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="5" t="s">
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="5"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="5" t="s">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="5"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="10">
         <v>1</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="5" t="s">
+      <c r="A76" s="10"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="5" t="s">
+      <c r="E76" s="10"/>
+      <c r="F76" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="5" t="s">
+      <c r="A77" s="10"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="5"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="5" t="s">
+      <c r="A78" s="10"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="5"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="5" t="s">
+      <c r="A79" s="10"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="5"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="5" t="s">
+      <c r="A80" s="10"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="5"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="5" t="s">
+      <c r="A81" s="10"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="5"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="10">
         <v>2</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="11"/>
+      <c r="C82" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="5" t="s">
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="5" t="s">
+      <c r="E83" s="10"/>
+      <c r="F83" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="5" t="s">
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="5"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="5" t="s">
+      <c r="A85" s="10"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="5"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="5" t="s">
+      <c r="A86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="5"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="5" t="s">
+      <c r="A87" s="10"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="5"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="5" t="s">
+      <c r="A88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="5"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="A89" s="10">
         <v>3</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="11"/>
+      <c r="C89" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="5" t="s">
+      <c r="A90" s="10"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="5" t="s">
+      <c r="E90" s="10"/>
+      <c r="F90" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="5" t="s">
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="5"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="5" t="s">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="5"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="5" t="s">
+      <c r="A93" s="10"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="5"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="5" t="s">
+      <c r="A94" s="10"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="5"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+      <c r="A95" s="10">
         <v>4</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="11"/>
+      <c r="C95" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="5" t="s">
+      <c r="A96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="5" t="s">
+      <c r="E96" s="10"/>
+      <c r="F96" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="5" t="s">
+      <c r="A97" s="10"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="5"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="5" t="s">
+      <c r="A98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="5"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="5" t="s">
+      <c r="A99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="5"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="5" t="s">
+      <c r="A100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="5"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="5" t="s">
+      <c r="A101" s="10"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="5"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="A102" s="10">
         <v>5</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="11"/>
+      <c r="C102" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="5" t="s">
+      <c r="A103" s="10"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="5" t="s">
+      <c r="E103" s="10"/>
+      <c r="F103" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="5" t="s">
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="5"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="5" t="s">
+      <c r="A105" s="10"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="5"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="5" t="s">
+      <c r="A106" s="10"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="5"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="5" t="s">
+      <c r="A107" s="10"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="5"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="5" t="s">
+      <c r="A108" s="10"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="5"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+      <c r="A109" s="10">
         <v>6</v>
       </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="11"/>
+      <c r="C109" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="5" t="s">
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="5" t="s">
+      <c r="E110" s="10"/>
+      <c r="F110" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="5" t="s">
+      <c r="A111" s="10"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="5"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="5" t="s">
+      <c r="A112" s="10"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="5"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="3"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="5" t="s">
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="5"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="5" t="s">
+      <c r="A114" s="10"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="5"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="5" t="s">
+      <c r="A115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="5"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="3"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+      <c r="A116" s="10">
         <v>7</v>
       </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="3" t="s">
+      <c r="B116" s="11"/>
+      <c r="C116" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="5" t="s">
+      <c r="A117" s="10"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="5" t="s">
+      <c r="E117" s="10"/>
+      <c r="F117" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="5" t="s">
+      <c r="A118" s="10"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="5"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="5" t="s">
+      <c r="A119" s="10"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="5"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="5" t="s">
+      <c r="A120" s="10"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="5"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="3"/>
     </row>
     <row r="121" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="5" t="s">
+      <c r="A121" s="10"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="5"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="5" t="s">
+      <c r="A122" s="10"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="5"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="3"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="5" t="s">
+      <c r="A123" s="10"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="5"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+      <c r="A124" s="10">
         <v>8</v>
       </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="3" t="s">
+      <c r="B124" s="11"/>
+      <c r="C124" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="5" t="s">
+      <c r="A125" s="10"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="5" t="s">
+      <c r="E125" s="10"/>
+      <c r="F125" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="5" t="s">
+      <c r="A126" s="10"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="7"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="5" t="s">
+      <c r="A127" s="10"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="5" t="s">
+      <c r="E127" s="10"/>
+      <c r="F127" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="5" t="s">
+      <c r="A128" s="10"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="5" t="s">
+      <c r="E128" s="10"/>
+      <c r="F128" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="5" t="s">
+      <c r="A129" s="10"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="5"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="5" t="s">
+      <c r="A130" s="10"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="5"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="5" t="s">
+      <c r="A131" s="10"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="5"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="5" t="s">
+      <c r="A132" s="10"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="5"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+      <c r="A133" s="10">
         <v>9</v>
       </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="3" t="s">
+      <c r="B133" s="11"/>
+      <c r="C133" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="3"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="5" t="s">
+      <c r="A134" s="10"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="5" t="s">
+      <c r="E134" s="10"/>
+      <c r="F134" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="5" t="s">
+      <c r="A135" s="10"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="5"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="3"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="3"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="5" t="s">
+      <c r="A136" s="10"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E136" s="3"/>
-      <c r="F136" s="5"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="3"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="5" t="s">
+      <c r="A137" s="10"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E137" s="3"/>
-      <c r="F137" s="5"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="5" t="s">
+      <c r="A138" s="10"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="5"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="5" t="s">
+      <c r="A139" s="10"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="5"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+      <c r="A140" s="10">
         <v>10</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="3" t="s">
+      <c r="B140" s="11"/>
+      <c r="C140" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="3"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="5" t="s">
+      <c r="A141" s="10"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="5" t="s">
+      <c r="E141" s="10"/>
+      <c r="F141" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="5" t="s">
+      <c r="A142" s="10"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="5"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="5" t="s">
+      <c r="A143" s="10"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="5"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="3"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="5" t="s">
+      <c r="A144" s="10"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="5"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="3"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="5" t="s">
+      <c r="A145" s="10"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="5"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="3"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="5" t="s">
+      <c r="A146" s="10"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="5"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="10"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
+      <c r="A147" s="7"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
+      <c r="A148" s="10">
         <v>1</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="3"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="5" t="s">
+      <c r="A149" s="10"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="5" t="s">
+      <c r="E149" s="10"/>
+      <c r="F149" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="3"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="5" t="s">
+      <c r="A150" s="10"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="5"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="3"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="5" t="s">
+      <c r="A151" s="10"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E151" s="3"/>
-      <c r="F151" s="5"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="5" t="s">
+      <c r="A152" s="10"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="5"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A153" s="3"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="5" t="s">
+      <c r="A153" s="10"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="5"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="5" t="s">
+      <c r="A154" s="10"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="5"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="5" t="s">
+      <c r="A155" s="10"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E155" s="3"/>
-      <c r="F155" s="5"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="3"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="5" t="s">
+      <c r="A156" s="10"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E156" s="3"/>
-      <c r="F156" s="5"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="3"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
+      <c r="A157" s="10">
         <v>2</v>
       </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="3" t="s">
+      <c r="B157" s="11"/>
+      <c r="C157" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="5" t="s">
+      <c r="A158" s="10"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="5" t="s">
+      <c r="E158" s="10"/>
+      <c r="F158" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="5" t="s">
+      <c r="A159" s="10"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="5"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="3"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="5" t="s">
+      <c r="A160" s="10"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="5"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="5" t="s">
+      <c r="A161" s="10"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="5"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="3"/>
     </row>
     <row r="162" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A162" s="3"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="5" t="s">
+      <c r="A162" s="10"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="5"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="3"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="5" t="s">
+      <c r="A163" s="10"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="5"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="3"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="5" t="s">
+      <c r="A164" s="10"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="5"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="3"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="3"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="5" t="s">
+      <c r="A165" s="10"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="5"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="3">
+      <c r="A166" s="10">
         <v>3</v>
       </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="3" t="s">
+      <c r="B166" s="11"/>
+      <c r="C166" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="3"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="5" t="s">
+      <c r="A167" s="10"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E167" s="3"/>
-      <c r="F167" s="5" t="s">
+      <c r="E167" s="10"/>
+      <c r="F167" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="3"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="5" t="s">
+      <c r="A168" s="10"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="5"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="3"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="3"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="5" t="s">
+      <c r="A169" s="10"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="5"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="3"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="5" t="s">
+      <c r="A170" s="10"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="5"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="5" t="s">
+      <c r="A171" s="10"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E171" s="3"/>
-      <c r="F171" s="5"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="3"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="5" t="s">
+      <c r="A172" s="10"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="5"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="3"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="5" t="s">
+      <c r="A173" s="10"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="5"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="3"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="5" t="s">
+      <c r="A174" s="10"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="5"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="3"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="3">
+      <c r="A175" s="10">
         <v>4</v>
       </c>
-      <c r="B175" s="6"/>
-      <c r="C175" s="3" t="s">
+      <c r="B175" s="11"/>
+      <c r="C175" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="3"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="5" t="s">
+      <c r="A176" s="10"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="5" t="s">
+      <c r="E176" s="10"/>
+      <c r="F176" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="3"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="5" t="s">
+      <c r="A177" s="10"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="5"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="3"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="3"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="5" t="s">
+      <c r="A178" s="10"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E178" s="3"/>
-      <c r="F178" s="5" t="s">
+      <c r="E178" s="10"/>
+      <c r="F178" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="3"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="5" t="s">
+      <c r="A179" s="10"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E179" s="3"/>
-      <c r="F179" s="5"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="3"/>
     </row>
     <row r="180" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="5" t="s">
+      <c r="A180" s="10"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E180" s="3"/>
-      <c r="F180" s="5"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="5" t="s">
+      <c r="A181" s="10"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E181" s="3"/>
-      <c r="F181" s="5"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="3"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="3"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="5" t="s">
+      <c r="A182" s="10"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E182" s="3"/>
-      <c r="F182" s="5"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="3"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="3"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="5" t="s">
+      <c r="A183" s="10"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="5"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="3"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="3"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="5" t="s">
+      <c r="A184" s="10"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E184" s="3"/>
-      <c r="F184" s="5"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="3"/>
     </row>
     <row r="185" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A185" s="3"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="5" t="s">
+      <c r="A185" s="10"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E185" s="3"/>
-      <c r="F185" s="5"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="3"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="3"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="5" t="s">
+      <c r="A186" s="10"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E186" s="3"/>
-      <c r="F186" s="5"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="3">
+      <c r="A187" s="10">
         <v>5</v>
       </c>
-      <c r="B187" s="6"/>
-      <c r="C187" s="3" t="s">
+      <c r="B187" s="11"/>
+      <c r="C187" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="F187" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="3"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="5" t="s">
+      <c r="A188" s="10"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E188" s="3"/>
-      <c r="F188" s="5" t="s">
+      <c r="E188" s="10"/>
+      <c r="F188" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="3"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="5" t="s">
+      <c r="A189" s="10"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E189" s="3"/>
-      <c r="F189" s="5"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="3"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="5" t="s">
+      <c r="A190" s="10"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E190" s="3"/>
-      <c r="F190" s="5" t="s">
+      <c r="E190" s="10"/>
+      <c r="F190" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="3"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="5" t="s">
+      <c r="A191" s="10"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E191" s="3"/>
-      <c r="F191" s="5"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="5" t="s">
+      <c r="A192" s="10"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E192" s="3"/>
-      <c r="F192" s="5"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="3"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="5" t="s">
+      <c r="A193" s="10"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E193" s="3"/>
-      <c r="F193" s="5"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="3"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="5" t="s">
+      <c r="A194" s="10"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E194" s="3"/>
-      <c r="F194" s="5"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="3"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="3"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="5" t="s">
+      <c r="A195" s="10"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E195" s="3"/>
-      <c r="F195" s="5"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="3"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="5" t="s">
+      <c r="A196" s="10"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="5"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A197" s="3"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="5" t="s">
+      <c r="A197" s="10"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E197" s="3"/>
-      <c r="F197" s="5"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="3"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="5" t="s">
+      <c r="A198" s="10"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E198" s="3"/>
-      <c r="F198" s="5"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="3"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="3">
+      <c r="A199" s="10">
         <v>6</v>
       </c>
-      <c r="B199" s="6"/>
-      <c r="C199" s="3" t="s">
+      <c r="B199" s="11"/>
+      <c r="C199" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="F199" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="5" t="s">
+      <c r="A200" s="10"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E200" s="3"/>
-      <c r="F200" s="5" t="s">
+      <c r="E200" s="10"/>
+      <c r="F200" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="3"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="5" t="s">
+      <c r="A201" s="10"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E201" s="3"/>
-      <c r="F201" s="5"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="5" t="s">
+      <c r="A202" s="10"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E202" s="3"/>
-      <c r="F202" s="5" t="s">
+      <c r="E202" s="10"/>
+      <c r="F202" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="5" t="s">
+      <c r="A203" s="10"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E203" s="3"/>
-      <c r="F203" s="5"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="3"/>
     </row>
     <row r="204" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A204" s="3"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="5" t="s">
+      <c r="A204" s="10"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E204" s="3"/>
-      <c r="F204" s="5"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="3"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="5" t="s">
+      <c r="A205" s="10"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E205" s="3"/>
-      <c r="F205" s="5"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="3"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="3"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="5" t="s">
+      <c r="A206" s="10"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E206" s="3"/>
-      <c r="F206" s="5"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="3"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="5" t="s">
+      <c r="A207" s="10"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E207" s="3"/>
-      <c r="F207" s="5"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="3"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="5" t="s">
+      <c r="A208" s="10"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E208" s="3"/>
-      <c r="F208" s="5"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="3"/>
     </row>
     <row r="209" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A209" s="3"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="5" t="s">
+      <c r="A209" s="10"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E209" s="3"/>
-      <c r="F209" s="5"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="3"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="5" t="s">
+      <c r="A210" s="10"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E210" s="3"/>
-      <c r="F210" s="5"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="3"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="3">
+      <c r="A211" s="10">
         <v>7</v>
       </c>
-      <c r="B211" s="6"/>
-      <c r="C211" s="3" t="s">
+      <c r="B211" s="11"/>
+      <c r="C211" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="D211" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F211" s="5" t="s">
+      <c r="F211" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="3"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="5" t="s">
+      <c r="A212" s="10"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E212" s="3"/>
-      <c r="F212" s="5" t="s">
+      <c r="E212" s="10"/>
+      <c r="F212" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="3"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="5" t="s">
+      <c r="A213" s="10"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E213" s="3"/>
-      <c r="F213" s="5"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="3"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="3"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="5" t="s">
+      <c r="A214" s="10"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E214" s="3"/>
-      <c r="F214" s="5" t="s">
+      <c r="E214" s="10"/>
+      <c r="F214" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="5" t="s">
+      <c r="A215" s="10"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E215" s="3"/>
-      <c r="F215" s="5"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="3"/>
     </row>
     <row r="216" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A216" s="3"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="5" t="s">
+      <c r="A216" s="10"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="5"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="3"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="3"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="5" t="s">
+      <c r="A217" s="10"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E217" s="3"/>
-      <c r="F217" s="5"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="3"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="5" t="s">
+      <c r="A218" s="10"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E218" s="3"/>
-      <c r="F218" s="5"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="3"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="3"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="5" t="s">
+      <c r="A219" s="10"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="5"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="3"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="3"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="5" t="s">
+      <c r="A220" s="10"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E220" s="3"/>
-      <c r="F220" s="5"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="3"/>
     </row>
     <row r="221" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A221" s="3"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="5" t="s">
+      <c r="A221" s="10"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E221" s="3"/>
-      <c r="F221" s="5"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="3"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="3"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="5" t="s">
+      <c r="A222" s="10"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E222" s="3"/>
-      <c r="F222" s="5"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="3"/>
     </row>
     <row r="223" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A223" s="3">
+      <c r="A223" s="10">
         <v>8</v>
       </c>
-      <c r="B223" s="6"/>
-      <c r="C223" s="3" t="s">
+      <c r="B223" s="11"/>
+      <c r="C223" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D223" s="5" t="s">
+      <c r="D223" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E223" s="5" t="s">
+      <c r="E223" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F223" s="5" t="s">
+      <c r="F223" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A224" s="3"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="5" t="s">
+      <c r="A224" s="10"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E224" s="5" t="s">
+      <c r="E224" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="F224" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="5" t="s">
+      <c r="A225" s="10"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E225" s="5"/>
-      <c r="F225" s="7"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="4"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="3"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="5" t="s">
+      <c r="A226" s="10"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5" t="s">
+      <c r="E226" s="3"/>
+      <c r="F226" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="3"/>
-      <c r="B227" s="6"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="5" t="s">
+      <c r="A227" s="10"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E227" s="5"/>
-      <c r="F227" s="8">
+      <c r="E227" s="3"/>
+      <c r="F227" s="5">
         <v>45261</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="3"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="5" t="s">
+      <c r="A228" s="10"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5" t="s">
+      <c r="E228" s="3"/>
+      <c r="F228" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="5" t="s">
+      <c r="A229" s="10"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="5" t="s">
+      <c r="A230" s="10"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5" t="s">
+      <c r="E230" s="3"/>
+      <c r="F230" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="5" t="s">
+      <c r="A231" s="10"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="3"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="5" t="s">
+      <c r="A232" s="10"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="5" t="s">
+      <c r="A233" s="10"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
     </row>
     <row r="234" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="5" t="s">
+      <c r="A234" s="10"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="5" t="s">
+      <c r="A235" s="10"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="5" t="s">
+      <c r="A236" s="10"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="3"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="5" t="s">
+      <c r="A237" s="10"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="5" t="s">
+      <c r="A238" s="10"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="5" t="s">
+      <c r="A239" s="10"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
     </row>
     <row r="240" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A240" s="3">
+      <c r="A240" s="10">
         <v>9</v>
       </c>
-      <c r="B240" s="6"/>
-      <c r="C240" s="3" t="s">
+      <c r="B240" s="11"/>
+      <c r="C240" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D240" s="5" t="s">
+      <c r="D240" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E240" s="5" t="s">
+      <c r="E240" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F240" s="5" t="s">
+      <c r="F240" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
-      <c r="B241" s="6"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="5" t="s">
+      <c r="A241" s="10"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E241" s="5" t="s">
+      <c r="E241" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F241" s="5" t="s">
+      <c r="F241" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
-      <c r="B242" s="6"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="5" t="s">
+      <c r="A242" s="10"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E242" s="5"/>
-      <c r="F242" s="7"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="4"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="3"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="5" t="s">
+      <c r="A243" s="10"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5" t="s">
+      <c r="E243" s="3"/>
+      <c r="F243" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="5" t="s">
+      <c r="A244" s="10"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E244" s="5"/>
-      <c r="F244" s="8">
+      <c r="E244" s="3"/>
+      <c r="F244" s="5">
         <v>45261</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
-      <c r="B245" s="6"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="5" t="s">
+      <c r="A245" s="10"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5" t="s">
+      <c r="E245" s="3"/>
+      <c r="F245" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="3"/>
-      <c r="B246" s="6"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="5" t="s">
+      <c r="A246" s="10"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="3"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="5" t="s">
+      <c r="A247" s="10"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5" t="s">
+      <c r="E247" s="3"/>
+      <c r="F247" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A248" s="3"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="5" t="s">
+      <c r="A248" s="10"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="3"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="5" t="s">
+      <c r="A249" s="10"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="3"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="5" t="s">
+      <c r="A250" s="10"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E250" s="5"/>
-      <c r="F250" s="5"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
     </row>
     <row r="251" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A251" s="3"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="5" t="s">
+      <c r="A251" s="10"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="3"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="5" t="s">
+      <c r="A252" s="10"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="3"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="5" t="s">
+      <c r="A253" s="10"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="3"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="5" t="s">
+      <c r="A254" s="10"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="3"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="3"/>
-      <c r="D255" s="5" t="s">
+      <c r="A255" s="10"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="3"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="5" t="s">
+      <c r="A256" s="10"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="3">
+      <c r="A257" s="10">
         <v>10</v>
       </c>
-      <c r="B257" s="6"/>
-      <c r="C257" s="3" t="s">
+      <c r="B257" s="11"/>
+      <c r="C257" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D257" s="5" t="s">
+      <c r="D257" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E257" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F257" s="5" t="s">
+      <c r="F257" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="3"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="5" t="s">
+      <c r="A258" s="10"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E258" s="3"/>
-      <c r="F258" s="5" t="s">
+      <c r="E258" s="10"/>
+      <c r="F258" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="3"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="3"/>
-      <c r="D259" s="5" t="s">
+      <c r="A259" s="10"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E259" s="3"/>
-      <c r="F259" s="7"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="4"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="3"/>
-      <c r="B260" s="6"/>
-      <c r="C260" s="3"/>
-      <c r="D260" s="5" t="s">
+      <c r="A260" s="10"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E260" s="3"/>
-      <c r="F260" s="5" t="s">
+      <c r="E260" s="10"/>
+      <c r="F260" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="3"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="5" t="s">
+      <c r="A261" s="10"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E261" s="3"/>
-      <c r="F261" s="8">
+      <c r="E261" s="10"/>
+      <c r="F261" s="5">
         <v>44774</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="3"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="5" t="s">
+      <c r="A262" s="10"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E262" s="3"/>
-      <c r="F262" s="5" t="s">
+      <c r="E262" s="10"/>
+      <c r="F262" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="3"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="3"/>
-      <c r="D263" s="5" t="s">
+      <c r="A263" s="10"/>
+      <c r="B263" s="11"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E263" s="3"/>
-      <c r="F263" s="5">
+      <c r="E263" s="10"/>
+      <c r="F263" s="3">
         <v>981</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="3"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="5" t="s">
+      <c r="A264" s="10"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E264" s="3"/>
-      <c r="F264" s="5"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="3"/>
     </row>
     <row r="265" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A265" s="3"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="5" t="s">
+      <c r="A265" s="10"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E265" s="3"/>
-      <c r="F265" s="5"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="3"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="3"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="3"/>
-      <c r="D266" s="5" t="s">
+      <c r="A266" s="10"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E266" s="3"/>
-      <c r="F266" s="5"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="3"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="3"/>
-      <c r="B267" s="6"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="5" t="s">
+      <c r="A267" s="10"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E267" s="3"/>
-      <c r="F267" s="5"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A268" s="3"/>
-      <c r="B268" s="6"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="5" t="s">
+      <c r="A268" s="10"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E268" s="3"/>
-      <c r="F268" s="5"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="3"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="3"/>
-      <c r="B269" s="6"/>
-      <c r="C269" s="3"/>
-      <c r="D269" s="5" t="s">
+      <c r="A269" s="10"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E269" s="3"/>
-      <c r="F269" s="5"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="3"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="5" t="s">
+      <c r="A270" s="10"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E270" s="3"/>
-      <c r="F270" s="5"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="3"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="3"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="3"/>
-      <c r="D271" s="5" t="s">
+      <c r="A271" s="10"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E271" s="3"/>
-      <c r="F271" s="5"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="3"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="3"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="3"/>
-      <c r="D272" s="5" t="s">
+      <c r="A272" s="10"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E272" s="3"/>
-      <c r="F272" s="5"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="3"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="3"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="3"/>
-      <c r="D273" s="5" t="s">
+      <c r="A273" s="10"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E273" s="3"/>
-      <c r="F273" s="5"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="3"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="3"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="3"/>
-      <c r="D274" s="5" t="s">
+      <c r="A274" s="10"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="10"/>
+      <c r="D274" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E274" s="3"/>
-      <c r="F274" s="5"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="3"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="5" t="s">
+      <c r="A275" s="10"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="10"/>
+      <c r="D275" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E275" s="3"/>
-      <c r="F275" s="5"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="E257:E275"/>
-    <mergeCell ref="A240:A256"/>
-    <mergeCell ref="B240:B256"/>
-    <mergeCell ref="C240:C256"/>
-    <mergeCell ref="A257:A275"/>
-    <mergeCell ref="B257:B275"/>
-    <mergeCell ref="C257:C275"/>
-    <mergeCell ref="A211:A222"/>
-    <mergeCell ref="B211:B222"/>
-    <mergeCell ref="C211:C222"/>
-    <mergeCell ref="E211:E222"/>
-    <mergeCell ref="A223:A239"/>
-    <mergeCell ref="B223:B239"/>
-    <mergeCell ref="C223:C239"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="C28:C39"/>
+    <mergeCell ref="E28:E39"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="C40:C50"/>
+    <mergeCell ref="E40:E50"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="E89:E94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="E95:E101"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="C75:C81"/>
+    <mergeCell ref="E75:E81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="C82:C88"/>
+    <mergeCell ref="E82:E88"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="C116:C123"/>
+    <mergeCell ref="E116:E123"/>
+    <mergeCell ref="A124:A132"/>
+    <mergeCell ref="B124:B132"/>
+    <mergeCell ref="C124:C132"/>
+    <mergeCell ref="E124:E132"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="C102:C108"/>
+    <mergeCell ref="E102:E108"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="B148:B156"/>
+    <mergeCell ref="C148:C156"/>
+    <mergeCell ref="E148:E156"/>
+    <mergeCell ref="A157:A165"/>
+    <mergeCell ref="B157:B165"/>
+    <mergeCell ref="C157:C165"/>
+    <mergeCell ref="E157:E165"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="E133:E139"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="E140:E146"/>
     <mergeCell ref="A187:A198"/>
     <mergeCell ref="B187:B198"/>
     <mergeCell ref="C187:C198"/>
@@ -4195,92 +4285,20 @@
     <mergeCell ref="B175:B186"/>
     <mergeCell ref="C175:C186"/>
     <mergeCell ref="E175:E186"/>
-    <mergeCell ref="A148:A156"/>
-    <mergeCell ref="B148:B156"/>
-    <mergeCell ref="C148:C156"/>
-    <mergeCell ref="E148:E156"/>
-    <mergeCell ref="A157:A165"/>
-    <mergeCell ref="B157:B165"/>
-    <mergeCell ref="C157:C165"/>
-    <mergeCell ref="E157:E165"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="E133:E139"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="E140:E146"/>
-    <mergeCell ref="A116:A123"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="C116:C123"/>
-    <mergeCell ref="E116:E123"/>
-    <mergeCell ref="A124:A132"/>
-    <mergeCell ref="B124:B132"/>
-    <mergeCell ref="C124:C132"/>
-    <mergeCell ref="E124:E132"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="B102:B108"/>
-    <mergeCell ref="C102:C108"/>
-    <mergeCell ref="E102:E108"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="E89:E94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="E95:E101"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="C75:C81"/>
-    <mergeCell ref="E75:E81"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="C82:C88"/>
-    <mergeCell ref="E82:E88"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="E59:E66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="E67:E73"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="C40:C50"/>
-    <mergeCell ref="E40:E50"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="C28:C39"/>
-    <mergeCell ref="E28:E39"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E257:E275"/>
+    <mergeCell ref="A240:A256"/>
+    <mergeCell ref="B240:B256"/>
+    <mergeCell ref="C240:C256"/>
+    <mergeCell ref="A257:A275"/>
+    <mergeCell ref="B257:B275"/>
+    <mergeCell ref="C257:C275"/>
+    <mergeCell ref="A211:A222"/>
+    <mergeCell ref="B211:B222"/>
+    <mergeCell ref="C211:C222"/>
+    <mergeCell ref="E211:E222"/>
+    <mergeCell ref="A223:A239"/>
+    <mergeCell ref="B223:B239"/>
+    <mergeCell ref="C223:C239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
